--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="REMISIONES DICIEMBRE  22021  " sheetId="6" r:id="rId3"/>
     <sheet name="REMISIONES   ENERO  2022  " sheetId="7" r:id="rId4"/>
     <sheet name="REMISIONES FEBRERO   2022  " sheetId="11" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="12" r:id="rId6"/>
-    <sheet name="NOVIEMBRE  TIENDAS  " sheetId="8" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId8"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
-    <sheet name="Hoja5" sheetId="10" r:id="rId10"/>
+    <sheet name="REMISIONES  MARZO   2022    " sheetId="12" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="13" r:id="rId7"/>
+    <sheet name="NOVIEMBRE  TIENDAS  " sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId10"/>
+    <sheet name="Hoja5" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="36">
   <si>
     <t>REMISION</t>
   </si>
@@ -232,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">ABASTOS  HERRADURA </t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   MARZO         2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -971,10 +975,10 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFCC0099"/>
       <color rgb="FF990033"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FFCC0099"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
@@ -1441,6 +1445,117 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="13063540"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="13111167"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
@@ -1463,7 +1578,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4576765" y="13063540"/>
+          <a:off x="4576765" y="15016165"/>
           <a:ext cx="581022" cy="590546"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1516,7 +1631,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5472114" y="13111167"/>
+          <a:off x="5472114" y="15063792"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1546,7 +1661,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1657,7 +1772,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3347,6 +3462,1085 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="18" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44553</v>
+      </c>
+      <c r="B4" s="13">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15">
+        <v>370</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="18">
+        <f>E4-G4</f>
+        <v>370</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44553</v>
+      </c>
+      <c r="B5" s="13">
+        <v>123</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20">
+        <v>745</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18">
+        <f>E5-G5</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="20">
+        <f>SUM(E4:E5)</f>
+        <v>1115</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44545</v>
+      </c>
+      <c r="B8" s="13">
+        <v>113</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5255</v>
+      </c>
+      <c r="F8" s="21">
+        <v>44559</v>
+      </c>
+      <c r="G8" s="22">
+        <v>5255</v>
+      </c>
+      <c r="H8" s="18">
+        <f>E8-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>44537</v>
+      </c>
+      <c r="B10" s="13">
+        <v>103</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="20">
+        <v>7232</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18">
+        <f t="shared" ref="H10:H21" si="0">E10-G10</f>
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44537</v>
+      </c>
+      <c r="B11" s="13">
+        <v>104</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20">
+        <v>7667</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>44539</v>
+      </c>
+      <c r="B12" s="13">
+        <v>105</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20">
+        <v>11332</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>11332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>44540</v>
+      </c>
+      <c r="B13" s="13">
+        <v>107</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20">
+        <v>7987</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="75">
+        <f t="shared" si="0"/>
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44541</v>
+      </c>
+      <c r="B14" s="13">
+        <v>108</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3462</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>44544</v>
+      </c>
+      <c r="B15" s="13">
+        <v>111</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6618</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44545</v>
+      </c>
+      <c r="B16" s="13">
+        <v>112</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20">
+        <v>8241</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44545</v>
+      </c>
+      <c r="B17" s="13">
+        <v>114</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="20">
+        <v>13074</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>13074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44550</v>
+      </c>
+      <c r="B18" s="13">
+        <v>117</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44557</v>
+      </c>
+      <c r="B19" s="13">
+        <v>124</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>218111</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>218111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44558</v>
+      </c>
+      <c r="B20" s="13">
+        <v>126</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="20">
+        <v>16564</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>16564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44559</v>
+      </c>
+      <c r="B21" s="13">
+        <v>130</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="20">
+        <v>6560</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="80">
+        <f>SUM(E10:E21)</f>
+        <v>306848</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44551</v>
+      </c>
+      <c r="B27" s="13">
+        <v>120</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="20">
+        <v>405</v>
+      </c>
+      <c r="F27" s="21">
+        <v>44552</v>
+      </c>
+      <c r="G27" s="22">
+        <v>405</v>
+      </c>
+      <c r="H27" s="18">
+        <f>E27-G27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>44539</v>
+      </c>
+      <c r="B28" s="13">
+        <v>106</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="20">
+        <v>19750</v>
+      </c>
+      <c r="F28" s="21">
+        <v>44553</v>
+      </c>
+      <c r="G28" s="22">
+        <v>19750</v>
+      </c>
+      <c r="H28" s="18">
+        <f>E28-G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>44543</v>
+      </c>
+      <c r="B29" s="13">
+        <v>110</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="20">
+        <v>5116</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44544</v>
+      </c>
+      <c r="G29" s="22">
+        <v>5116</v>
+      </c>
+      <c r="H29" s="18">
+        <f>E29-G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>44558</v>
+      </c>
+      <c r="B30" s="13">
+        <v>127</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="20">
+        <v>8467</v>
+      </c>
+      <c r="F30" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G30" s="22">
+        <v>8467</v>
+      </c>
+      <c r="H30" s="18">
+        <f>E30-G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44558</v>
+      </c>
+      <c r="B31" s="13">
+        <v>128</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="20">
+        <v>3552</v>
+      </c>
+      <c r="F31" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G31" s="22">
+        <v>3552</v>
+      </c>
+      <c r="H31" s="18">
+        <f>E31-G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>44553</v>
+      </c>
+      <c r="B33" s="13">
+        <v>122</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1881</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18">
+        <f>E33-G33</f>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>44543</v>
+      </c>
+      <c r="B35" s="13">
+        <v>109</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="20">
+        <v>363</v>
+      </c>
+      <c r="F35" s="69">
+        <v>44543</v>
+      </c>
+      <c r="G35" s="70">
+        <v>363</v>
+      </c>
+      <c r="H35" s="18">
+        <f>E35-G35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>44546</v>
+      </c>
+      <c r="B37" s="13">
+        <v>115</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20">
+        <v>44476</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="18">
+        <f t="shared" ref="H37:H42" si="1">E37-G37</f>
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>44547</v>
+      </c>
+      <c r="B38" s="13">
+        <v>116</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="20">
+        <v>12113</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="18">
+        <f t="shared" si="1"/>
+        <v>12113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>44550</v>
+      </c>
+      <c r="B39" s="13">
+        <v>118</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1348</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="18">
+        <f t="shared" si="1"/>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>44551</v>
+      </c>
+      <c r="B40" s="13">
+        <v>119</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>44557</v>
+      </c>
+      <c r="B41" s="13">
+        <v>125</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="20">
+        <v>469</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="18">
+        <f t="shared" si="1"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>44559</v>
+      </c>
+      <c r="B42" s="13">
+        <v>129</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60">
+        <f>SUM(E37:E42)</f>
+        <v>58407</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="18">
+        <f>E46-G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="29">
+        <f>E47-G47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="39">
+        <f>SUM(E4:E47)</f>
+        <v>777529</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39">
+        <f>SUM(G4:G47)</f>
+        <v>42908</v>
+      </c>
+      <c r="H48" s="40">
+        <f>SUM(H4:H47)</f>
+        <v>368251</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="42"/>
+      <c r="G50" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="110">
+        <f>E48-G48</f>
+        <v>734621</v>
+      </c>
+      <c r="F52" s="111"/>
+      <c r="G52" s="112"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="50"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="I65" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A4:H31">
+    <sortCondition ref="D4:D31"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E54:G54"/>
+  </mergeCells>
+  <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7836,10 +9030,10 @@
   <sheetPr>
     <tabColor rgb="FF990033"/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7925,7 +9119,7 @@
         <v>14378</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H63" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H56" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -8766,422 +9960,1607 @@
       <c r="E38" s="20">
         <v>40856</v>
       </c>
+      <c r="F38" s="95">
+        <v>44624</v>
+      </c>
+      <c r="G38" s="96">
+        <v>40856</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>44610</v>
+      </c>
+      <c r="B39" s="13">
+        <v>214</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20">
+        <v>7105</v>
+      </c>
+      <c r="F39" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G39" s="22">
+        <v>7105</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>44611</v>
+      </c>
+      <c r="B40" s="13">
+        <v>215</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="20">
+        <v>7690</v>
+      </c>
+      <c r="F40" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G40" s="22">
+        <v>7690</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>44611</v>
+      </c>
+      <c r="B41" s="13">
+        <v>216</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="20">
+        <v>340</v>
+      </c>
+      <c r="F41" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G41" s="22">
+        <v>340</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>44613</v>
+      </c>
+      <c r="B42" s="13">
+        <v>217</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="20">
+        <v>8456</v>
+      </c>
+      <c r="F42" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G42" s="22">
+        <v>8456</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>44613</v>
+      </c>
+      <c r="B43" s="13">
+        <v>218</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="20">
+        <v>21362</v>
+      </c>
+      <c r="F43" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G43" s="22">
+        <v>21362</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>44614</v>
+      </c>
+      <c r="B44" s="13">
+        <v>219</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="20">
+        <v>11560</v>
+      </c>
+      <c r="F44" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G44" s="22">
+        <v>11560</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>44615</v>
+      </c>
+      <c r="B45" s="13">
+        <v>220</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="20">
+        <v>189945</v>
+      </c>
+      <c r="F45" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G45" s="22">
+        <v>189945</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>44615</v>
+      </c>
+      <c r="B46" s="13">
+        <v>221</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="20">
+        <v>1313</v>
+      </c>
+      <c r="F46" s="95">
+        <v>44622</v>
+      </c>
+      <c r="G46" s="96">
+        <v>1313</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>44615</v>
+      </c>
+      <c r="B47" s="13">
+        <v>222</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="20">
+        <v>91036</v>
+      </c>
+      <c r="F47" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G47" s="22">
+        <v>91036</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>44615</v>
+      </c>
+      <c r="B48" s="13">
+        <v>223</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="20">
+        <v>170</v>
+      </c>
+      <c r="F48" s="95"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="18">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>44615</v>
+      </c>
+      <c r="B49" s="13">
+        <v>224</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="20">
+        <v>400</v>
+      </c>
+      <c r="F49" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G49" s="22">
+        <v>400</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>44616</v>
+      </c>
+      <c r="B50" s="13">
+        <v>225</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20">
+        <v>14110</v>
+      </c>
+      <c r="F50" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G50" s="22">
+        <v>14110</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>44616</v>
+      </c>
+      <c r="B51" s="13">
+        <v>226</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G51" s="22">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>44616</v>
+      </c>
+      <c r="B52" s="13">
+        <v>227</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="20">
+        <v>25545</v>
+      </c>
+      <c r="F52" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G52" s="22">
+        <v>25545</v>
+      </c>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>44617</v>
+      </c>
+      <c r="B53" s="13">
+        <v>228</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="20">
+        <v>18164</v>
+      </c>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>18164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>44618</v>
+      </c>
+      <c r="B54" s="13">
+        <v>229</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="20">
+        <v>12138</v>
+      </c>
+      <c r="F54" s="95"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>44618</v>
+      </c>
+      <c r="B55" s="13">
+        <v>230</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="20">
+        <v>7072</v>
+      </c>
+      <c r="F55" s="95"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="18">
+        <f t="shared" si="0"/>
+        <v>7072</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34">
+        <v>0</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="39">
+        <f>SUM(E4:E56)</f>
+        <v>838144</v>
+      </c>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39">
+        <f>SUM(G4:G56)</f>
+        <v>800600</v>
+      </c>
+      <c r="H57" s="40">
+        <f>SUM(H4:H56)</f>
+        <v>37544</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="G59" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="44"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="110">
+        <f>E57-G57</f>
+        <v>37544</v>
+      </c>
+      <c r="F61" s="111"/>
+      <c r="G61" s="112"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="30"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="50"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="43"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="43"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="43"/>
+      <c r="I74" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E63:G63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:I81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="18" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44620</v>
+      </c>
+      <c r="B4" s="13">
+        <v>231</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15">
+        <v>15017</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H63" si="0">E4-G4</f>
+        <v>15017</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44620</v>
+      </c>
+      <c r="B5" s="13">
+        <v>232</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44621</v>
+      </c>
+      <c r="B6" s="13">
+        <v>233</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="20">
+        <v>20979</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>20979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>44621</v>
+      </c>
+      <c r="B7" s="13">
+        <v>234</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="20">
+        <v>6596</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>44622</v>
+      </c>
+      <c r="B8" s="13">
+        <v>235</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="20">
+        <v>64</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="75">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44622</v>
+      </c>
+      <c r="B9" s="13">
+        <v>236</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1827</v>
+      </c>
+      <c r="F9" s="21">
+        <v>44629</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1827</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44623</v>
+      </c>
+      <c r="B10" s="13">
+        <v>237</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="20">
+        <v>3332</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44623</v>
+      </c>
+      <c r="B11" s="13">
+        <v>238</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6800</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>44624</v>
+      </c>
+      <c r="B12" s="13">
+        <v>239</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="20">
+        <v>6664</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>44624</v>
+      </c>
+      <c r="B13" s="13">
+        <v>240</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="20">
+        <v>28638</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>28638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44625</v>
+      </c>
+      <c r="B14" s="13">
+        <v>241</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20">
+        <v>12362</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>12362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>44627</v>
+      </c>
+      <c r="B15" s="13">
+        <v>242</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20">
+        <v>92666</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>92666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44628</v>
+      </c>
+      <c r="B16" s="13">
+        <v>243</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="20">
+        <v>12222</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>12222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44628</v>
+      </c>
+      <c r="B17" s="13">
+        <v>244</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="20">
+        <v>3060</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44628</v>
+      </c>
+      <c r="B18" s="13">
+        <v>245</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="20">
+        <v>26217</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>26217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44629</v>
+      </c>
+      <c r="B19" s="13">
+        <v>246</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1617</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44629</v>
+      </c>
+      <c r="B20" s="13">
+        <v>247</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="20">
+        <v>80833</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>80833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44630</v>
+      </c>
+      <c r="B21" s="13">
+        <v>248</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="20">
+        <v>11767</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>11767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13">
+        <v>249</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <v>250</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
+        <v>251</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13">
+        <v>252</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13">
+        <v>253</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
+        <v>254</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13">
+        <v>255</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13">
+        <v>256</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
+        <v>257</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
+        <v>258</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="13">
+        <v>259</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="13">
+        <v>260</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="13">
+        <v>261</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="13">
+        <v>262</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="13">
+        <v>263</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="13">
+        <v>264</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="13">
+        <v>265</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>40856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>44610</v>
-      </c>
+      <c r="A39" s="23"/>
       <c r="B39" s="13">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="20">
-        <v>7105</v>
-      </c>
-      <c r="F39" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G39" s="22">
-        <v>7105</v>
-      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
-        <v>44611</v>
-      </c>
+      <c r="A40" s="23"/>
       <c r="B40" s="13">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="20">
-        <v>7690</v>
-      </c>
-      <c r="F40" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G40" s="22">
-        <v>7690</v>
-      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
-        <v>44611</v>
-      </c>
+      <c r="A41" s="23"/>
       <c r="B41" s="13">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="20">
-        <v>340</v>
-      </c>
-      <c r="F41" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G41" s="22">
-        <v>340</v>
-      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
-        <v>44613</v>
-      </c>
+      <c r="A42" s="23"/>
       <c r="B42" s="13">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="20">
-        <v>8456</v>
-      </c>
-      <c r="F42" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G42" s="22">
-        <v>8456</v>
-      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
-        <v>44613</v>
-      </c>
+      <c r="A43" s="23"/>
       <c r="B43" s="13">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="20">
-        <v>21362</v>
-      </c>
-      <c r="F43" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G43" s="22">
-        <v>21362</v>
-      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <v>44614</v>
-      </c>
+      <c r="A44" s="23"/>
       <c r="B44" s="13">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="20">
-        <v>11560</v>
-      </c>
-      <c r="F44" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G44" s="22">
-        <v>11560</v>
-      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <v>44615</v>
-      </c>
+      <c r="A45" s="23"/>
       <c r="B45" s="13">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="20">
-        <v>189945</v>
-      </c>
-      <c r="F45" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G45" s="22">
-        <v>189945</v>
-      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
-        <v>44615</v>
-      </c>
+      <c r="A46" s="23"/>
       <c r="B46" s="13">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="20">
-        <v>1313</v>
-      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>1313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
-        <v>44615</v>
-      </c>
+      <c r="A47" s="23"/>
       <c r="B47" s="13">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="20">
-        <v>91036</v>
-      </c>
-      <c r="F47" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G47" s="22">
-        <v>91036</v>
-      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
-        <v>44615</v>
-      </c>
+      <c r="A48" s="23"/>
       <c r="B48" s="13">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="20">
-        <v>170</v>
-      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
-        <v>44615</v>
-      </c>
+      <c r="A49" s="23"/>
       <c r="B49" s="13">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="20">
-        <v>400</v>
-      </c>
-      <c r="F49" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G49" s="22">
-        <v>400</v>
-      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
-        <v>44616</v>
-      </c>
+      <c r="A50" s="23"/>
       <c r="B50" s="13">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="20">
-        <v>14110</v>
-      </c>
-      <c r="F50" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G50" s="22">
-        <v>14110</v>
-      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <v>44616</v>
-      </c>
+      <c r="A51" s="23"/>
       <c r="B51" s="13">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="20">
-        <v>1</v>
-      </c>
-      <c r="F51" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G51" s="22">
-        <v>1</v>
-      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
-        <v>44616</v>
-      </c>
+      <c r="A52" s="23"/>
       <c r="B52" s="13">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="20">
-        <v>25545</v>
-      </c>
-      <c r="F52" s="21">
-        <v>44617</v>
-      </c>
-      <c r="G52" s="22">
-        <v>25545</v>
-      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
-        <v>44617</v>
-      </c>
+      <c r="A53" s="23"/>
       <c r="B53" s="13">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="20">
-        <v>18164</v>
-      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
-        <v>18164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
-        <v>44618</v>
-      </c>
+      <c r="A54" s="23"/>
       <c r="B54" s="13">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="20">
-        <v>12138</v>
-      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>12138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
-        <v>44618</v>
-      </c>
+      <c r="A55" s="23"/>
       <c r="B55" s="13">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="20">
-        <v>7072</v>
-      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>7072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="13">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="19"/>
@@ -9196,7 +11575,7 @@
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="13">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="19"/>
@@ -9211,7 +11590,7 @@
     <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="13">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="19"/>
@@ -9226,7 +11605,7 @@
     <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="13">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="19"/>
@@ -9241,7 +11620,7 @@
     <row r="60" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="13">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="19"/>
@@ -9256,7 +11635,7 @@
     <row r="61" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="13">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="19"/>
@@ -9271,7 +11650,7 @@
     <row r="62" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="13">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="19"/>
@@ -9285,7 +11664,9 @@
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31"/>
-      <c r="B63" s="13"/>
+      <c r="B63" s="13">
+        <v>290</v>
+      </c>
       <c r="C63" s="32"/>
       <c r="D63" s="33"/>
       <c r="E63" s="34">
@@ -9305,16 +11686,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="39">
         <f>SUM(E4:E63)</f>
-        <v>838144</v>
+        <v>330661</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39">
         <f>SUM(G4:G63)</f>
-        <v>758431</v>
+        <v>1827</v>
       </c>
       <c r="H64" s="40">
         <f>SUM(H4:H63)</f>
-        <v>79713</v>
+        <v>328834</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -9358,7 +11739,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="110">
         <f>E64-G64</f>
-        <v>79713</v>
+        <v>328834</v>
       </c>
       <c r="F68" s="111"/>
       <c r="G68" s="112"/>
@@ -9492,12 +11873,11 @@
     <mergeCell ref="E70:G70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9509,7 +11889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -10433,7 +12813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
@@ -12287,1083 +14667,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:I65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="18" style="56" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>44553</v>
-      </c>
-      <c r="B4" s="13">
-        <v>121</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15">
-        <v>370</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="18">
-        <f>E4-G4</f>
-        <v>370</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>44553</v>
-      </c>
-      <c r="B5" s="13">
-        <v>123</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="20">
-        <v>745</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="18">
-        <f>E5-G5</f>
-        <v>745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="20">
-        <f>SUM(E4:E5)</f>
-        <v>1115</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>44545</v>
-      </c>
-      <c r="B8" s="13">
-        <v>113</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="20">
-        <v>5255</v>
-      </c>
-      <c r="F8" s="21">
-        <v>44559</v>
-      </c>
-      <c r="G8" s="22">
-        <v>5255</v>
-      </c>
-      <c r="H8" s="18">
-        <f>E8-G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>44537</v>
-      </c>
-      <c r="B10" s="13">
-        <v>103</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="20">
-        <v>7232</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="18">
-        <f t="shared" ref="H10:H21" si="0">E10-G10</f>
-        <v>7232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>44537</v>
-      </c>
-      <c r="B11" s="13">
-        <v>104</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="20">
-        <v>7667</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18">
-        <f t="shared" si="0"/>
-        <v>7667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>44539</v>
-      </c>
-      <c r="B12" s="13">
-        <v>105</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="20">
-        <v>11332</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="18">
-        <f t="shared" si="0"/>
-        <v>11332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
-        <v>44540</v>
-      </c>
-      <c r="B13" s="13">
-        <v>107</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="20">
-        <v>7987</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="75">
-        <f t="shared" si="0"/>
-        <v>7987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>44541</v>
-      </c>
-      <c r="B14" s="13">
-        <v>108</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3462</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="18">
-        <f t="shared" si="0"/>
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>44544</v>
-      </c>
-      <c r="B15" s="13">
-        <v>111</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="20">
-        <v>6618</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="18">
-        <f t="shared" si="0"/>
-        <v>6618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>44545</v>
-      </c>
-      <c r="B16" s="13">
-        <v>112</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="20">
-        <v>8241</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="18">
-        <f t="shared" si="0"/>
-        <v>8241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>44545</v>
-      </c>
-      <c r="B17" s="13">
-        <v>114</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="20">
-        <v>13074</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="18">
-        <f t="shared" si="0"/>
-        <v>13074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>44550</v>
-      </c>
-      <c r="B18" s="13">
-        <v>117</v>
-      </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>44557</v>
-      </c>
-      <c r="B19" s="13">
-        <v>124</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="20">
-        <v>218111</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="18">
-        <f t="shared" si="0"/>
-        <v>218111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>44558</v>
-      </c>
-      <c r="B20" s="13">
-        <v>126</v>
-      </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="20">
-        <v>16564</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="18">
-        <f t="shared" si="0"/>
-        <v>16564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>44559</v>
-      </c>
-      <c r="B21" s="13">
-        <v>130</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="20">
-        <v>6560</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="18">
-        <f t="shared" si="0"/>
-        <v>6560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="80">
-        <f>SUM(E10:E21)</f>
-        <v>306848</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>44551</v>
-      </c>
-      <c r="B27" s="13">
-        <v>120</v>
-      </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="20">
-        <v>405</v>
-      </c>
-      <c r="F27" s="21">
-        <v>44552</v>
-      </c>
-      <c r="G27" s="22">
-        <v>405</v>
-      </c>
-      <c r="H27" s="18">
-        <f>E27-G27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>44539</v>
-      </c>
-      <c r="B28" s="13">
-        <v>106</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="20">
-        <v>19750</v>
-      </c>
-      <c r="F28" s="21">
-        <v>44553</v>
-      </c>
-      <c r="G28" s="22">
-        <v>19750</v>
-      </c>
-      <c r="H28" s="18">
-        <f>E28-G28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>44543</v>
-      </c>
-      <c r="B29" s="13">
-        <v>110</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="20">
-        <v>5116</v>
-      </c>
-      <c r="F29" s="21">
-        <v>44544</v>
-      </c>
-      <c r="G29" s="22">
-        <v>5116</v>
-      </c>
-      <c r="H29" s="18">
-        <f>E29-G29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>44558</v>
-      </c>
-      <c r="B30" s="13">
-        <v>127</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="20">
-        <v>8467</v>
-      </c>
-      <c r="F30" s="21">
-        <v>44560</v>
-      </c>
-      <c r="G30" s="22">
-        <v>8467</v>
-      </c>
-      <c r="H30" s="18">
-        <f>E30-G30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>44558</v>
-      </c>
-      <c r="B31" s="13">
-        <v>128</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="20">
-        <v>3552</v>
-      </c>
-      <c r="F31" s="21">
-        <v>44560</v>
-      </c>
-      <c r="G31" s="22">
-        <v>3552</v>
-      </c>
-      <c r="H31" s="18">
-        <f>E31-G31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>44553</v>
-      </c>
-      <c r="B33" s="13">
-        <v>122</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="20">
-        <v>1881</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="18">
-        <f>E33-G33</f>
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>44543</v>
-      </c>
-      <c r="B35" s="13">
-        <v>109</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="20">
-        <v>363</v>
-      </c>
-      <c r="F35" s="69">
-        <v>44543</v>
-      </c>
-      <c r="G35" s="70">
-        <v>363</v>
-      </c>
-      <c r="H35" s="18">
-        <f>E35-G35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>44546</v>
-      </c>
-      <c r="B37" s="13">
-        <v>115</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="20">
-        <v>44476</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="18">
-        <f t="shared" ref="H37:H42" si="1">E37-G37</f>
-        <v>44476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>44547</v>
-      </c>
-      <c r="B38" s="13">
-        <v>116</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="20">
-        <v>12113</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="18">
-        <f t="shared" si="1"/>
-        <v>12113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>44550</v>
-      </c>
-      <c r="B39" s="13">
-        <v>118</v>
-      </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="20">
-        <v>1348</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="18">
-        <f t="shared" si="1"/>
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>44551</v>
-      </c>
-      <c r="B40" s="13">
-        <v>119</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="20">
-        <v>1</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>44557</v>
-      </c>
-      <c r="B41" s="13">
-        <v>125</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="20">
-        <v>469</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="18">
-        <f t="shared" si="1"/>
-        <v>469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>44559</v>
-      </c>
-      <c r="B42" s="13">
-        <v>129</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="20">
-        <v>0</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60">
-        <f>SUM(E37:E42)</f>
-        <v>58407</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="18">
-        <f>E46-G46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34">
-        <v>0</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="29">
-        <f>E47-G47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="39">
-        <f>SUM(E4:E47)</f>
-        <v>777529</v>
-      </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39">
-        <f>SUM(G4:G47)</f>
-        <v>42908</v>
-      </c>
-      <c r="H48" s="40">
-        <f>SUM(H4:H47)</f>
-        <v>368251</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="110">
-        <f>E48-G48</f>
-        <v>734621</v>
-      </c>
-      <c r="F52" s="111"/>
-      <c r="G52" s="112"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="50"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="43"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="43"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="37"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="I65" s="2"/>
-    </row>
-  </sheetData>
-  <sortState ref="A4:H31">
-    <sortCondition ref="D4:D31"/>
-  </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E54:G54"/>
-  </mergeCells>
-  <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="36">
   <si>
     <t>REMISION</t>
   </si>
@@ -9033,7 +9033,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10601,8 +10601,8 @@
   </sheetPr>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10875,11 +10875,15 @@
       <c r="E13" s="20">
         <v>28638</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="21">
+        <v>44632</v>
+      </c>
+      <c r="G13" s="22">
+        <v>28638</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>28638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -11051,93 +11055,129 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44632</v>
+      </c>
       <c r="B22" s="13">
         <v>249</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="20">
+        <v>8120</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44632</v>
+      </c>
       <c r="B23" s="13">
         <v>250</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="20">
+        <v>50260</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50260</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44633</v>
+      </c>
       <c r="B24" s="13">
         <v>251</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="20">
+        <v>84535</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84535</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44633</v>
+      </c>
       <c r="B25" s="13">
         <v>252</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="20">
+        <v>77384</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77384</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44633</v>
+      </c>
       <c r="B26" s="13">
         <v>253</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="20">
+        <v>71425</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71425</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44633</v>
+      </c>
       <c r="B27" s="13">
         <v>254</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="20">
+        <v>2969</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11686,16 +11726,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="39">
         <f>SUM(E4:E63)</f>
-        <v>330661</v>
+        <v>625354</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39">
         <f>SUM(G4:G63)</f>
-        <v>1827</v>
+        <v>30465</v>
       </c>
       <c r="H64" s="40">
         <f>SUM(H4:H63)</f>
-        <v>328834</v>
+        <v>594889</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -11739,7 +11779,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="110">
         <f>E64-G64</f>
-        <v>328834</v>
+        <v>594889</v>
       </c>
       <c r="F68" s="111"/>
       <c r="G68" s="112"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="36">
   <si>
     <t>REMISION</t>
   </si>
@@ -9033,7 +9033,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10602,7 +10602,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D34" sqref="D33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11181,63 +11181,87 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44634</v>
+      </c>
       <c r="B28" s="13">
         <v>255</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="20">
+        <v>6534</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44634</v>
+      </c>
       <c r="B29" s="13">
         <v>256</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="20">
+        <v>7177</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7177</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44634</v>
+      </c>
       <c r="B30" s="13">
         <v>257</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="20">
+        <v>32815</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+        <v>32815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44635</v>
+      </c>
       <c r="B31" s="13">
         <v>258</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="20">
+        <v>57838</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57838</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11726,7 +11750,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="39">
         <f>SUM(E4:E63)</f>
-        <v>625354</v>
+        <v>729718</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39">
@@ -11735,7 +11759,7 @@
       </c>
       <c r="H64" s="40">
         <f>SUM(H4:H63)</f>
-        <v>594889</v>
+        <v>699253</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -11779,7 +11803,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="110">
         <f>E64-G64</f>
-        <v>594889</v>
+        <v>699253</v>
       </c>
       <c r="F68" s="111"/>
       <c r="G68" s="112"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="37">
   <si>
     <t>REMISION</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE   MARZO         2 0 2 2</t>
+  </si>
+  <si>
+    <t>11 SUR</t>
   </si>
 </sst>
 </file>
@@ -10601,8 +10604,8 @@
   </sheetPr>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D33:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11005,11 +11008,15 @@
       <c r="E19" s="20">
         <v>1617</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="21">
+        <v>44636</v>
+      </c>
+      <c r="G19" s="22">
+        <v>1617</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>1617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11265,13 +11272,19 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="23">
+        <v>44636</v>
+      </c>
       <c r="B32" s="13">
         <v>259</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
@@ -11279,13 +11292,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="23">
+        <v>44636</v>
+      </c>
       <c r="B33" s="13">
         <v>260</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1471</v>
+      </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="18">
@@ -11293,13 +11312,19 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="23">
+        <v>44636</v>
+      </c>
       <c r="B34" s="13">
         <v>261</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="20">
+        <v>12995</v>
+      </c>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
@@ -11307,63 +11332,87 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="23">
+        <v>44636</v>
+      </c>
       <c r="B35" s="13">
         <v>262</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2610</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="23">
+        <v>44636</v>
+      </c>
       <c r="B36" s="13">
         <v>263</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="20">
+        <v>85149</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85149</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="23">
+        <v>44636</v>
+      </c>
       <c r="B37" s="13">
         <v>264</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="20">
+        <v>78315</v>
+      </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78315</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="23">
+        <v>44636</v>
+      </c>
       <c r="B38" s="13">
         <v>265</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="20">
+        <v>60</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11750,16 +11799,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="39">
         <f>SUM(E4:E63)</f>
-        <v>729718</v>
+        <v>910318</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39">
         <f>SUM(G4:G63)</f>
-        <v>30465</v>
+        <v>32082</v>
       </c>
       <c r="H64" s="40">
         <f>SUM(H4:H63)</f>
-        <v>699253</v>
+        <v>863770</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -11803,7 +11852,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="110">
         <f>E64-G64</f>
-        <v>699253</v>
+        <v>878236</v>
       </c>
       <c r="F68" s="111"/>
       <c r="G68" s="112"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="37">
   <si>
     <t>REMISION</t>
   </si>
@@ -10604,8 +10604,8 @@
   </sheetPr>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10987,11 +10987,15 @@
       <c r="E18" s="20">
         <v>26217</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="21">
+        <v>44637</v>
+      </c>
+      <c r="G18" s="22">
+        <v>26217</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>26217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11416,18 +11420,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="23">
+        <v>44637</v>
+      </c>
       <c r="B39" s="13">
         <v>266</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="20">
+        <v>10556</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11799,16 +11809,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="39">
         <f>SUM(E4:E63)</f>
-        <v>910318</v>
+        <v>920874</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39">
         <f>SUM(G4:G63)</f>
-        <v>32082</v>
+        <v>58299</v>
       </c>
       <c r="H64" s="40">
         <f>SUM(H4:H63)</f>
-        <v>863770</v>
+        <v>848109</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -11852,7 +11862,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="110">
         <f>E64-G64</f>
-        <v>878236</v>
+        <v>862575</v>
       </c>
       <c r="F68" s="111"/>
       <c r="G68" s="112"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="40">
   <si>
     <t>REMISION</t>
   </si>
@@ -240,6 +240,28 @@
   <si>
     <t>11 SUR</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Devolucion de mercancia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11 SUR  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANCELADA</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +273,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +420,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -694,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,6 +944,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2173,24 +2207,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3336,12 +3370,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="110">
+      <c r="D55" s="112">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="111"/>
-      <c r="F55" s="112"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="114"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3355,11 +3389,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="113" t="s">
+      <c r="D57" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,25 +3522,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4398,12 +4432,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="110">
+      <c r="E52" s="112">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="111"/>
-      <c r="G52" s="112"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="114"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,11 +4453,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="113" t="s">
+      <c r="E54" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4579,25 +4613,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6327,12 +6361,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="110">
+      <c r="E76" s="112">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="111"/>
-      <c r="G76" s="112"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="114"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6348,11 +6382,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="113" t="s">
+      <c r="E78" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="113"/>
-      <c r="G78" s="113"/>
+      <c r="F78" s="115"/>
+      <c r="G78" s="115"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6493,25 +6527,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7360,12 +7394,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="110">
+      <c r="E41" s="112">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="111"/>
-      <c r="G41" s="112"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="114"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7381,11 +7415,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7529,25 +7563,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8887,12 +8921,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="110">
+      <c r="E60" s="112">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="111"/>
-      <c r="G60" s="112"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="114"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -8908,11 +8942,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="113" t="s">
+      <c r="E62" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -9036,7 +9070,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9053,25 +9087,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10213,11 +10247,15 @@
       <c r="E48" s="20">
         <v>170</v>
       </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="96"/>
+      <c r="F48" s="95">
+        <v>44642</v>
+      </c>
+      <c r="G48" s="96">
+        <v>170</v>
+      </c>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10334,11 +10372,15 @@
       <c r="E53" s="20">
         <v>18164</v>
       </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="96"/>
+      <c r="F53" s="95">
+        <v>44643</v>
+      </c>
+      <c r="G53" s="96">
+        <v>18164</v>
+      </c>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
-        <v>18164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10355,11 +10397,15 @@
       <c r="E54" s="20">
         <v>12138</v>
       </c>
-      <c r="F54" s="95"/>
-      <c r="G54" s="96"/>
+      <c r="F54" s="95">
+        <v>44643</v>
+      </c>
+      <c r="G54" s="96">
+        <v>12138</v>
+      </c>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>12138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10376,11 +10422,15 @@
       <c r="E55" s="20">
         <v>7072</v>
       </c>
-      <c r="F55" s="95"/>
-      <c r="G55" s="96"/>
+      <c r="F55" s="95">
+        <v>44643</v>
+      </c>
+      <c r="G55" s="96">
+        <v>7072</v>
+      </c>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>7072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10410,11 +10460,11 @@
       <c r="F57" s="39"/>
       <c r="G57" s="39">
         <f>SUM(G4:G56)</f>
-        <v>800600</v>
+        <v>838144</v>
       </c>
       <c r="H57" s="40">
         <f>SUM(H4:H56)</f>
-        <v>37544</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -10456,12 +10506,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="110">
+      <c r="E61" s="112">
         <f>E57-G57</f>
-        <v>37544</v>
-      </c>
-      <c r="F61" s="111"/>
-      <c r="G61" s="112"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="113"/>
+      <c r="G61" s="114"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -10477,11 +10527,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="113" t="s">
+      <c r="E63" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -10604,8 +10654,8 @@
   </sheetPr>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10622,25 +10672,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10684,11 +10734,15 @@
       <c r="E4" s="15">
         <v>15017</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="16">
+        <v>44643</v>
+      </c>
+      <c r="G4" s="17">
+        <v>15017</v>
+      </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H63" si="0">E4-G4</f>
-        <v>15017</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -10727,11 +10781,15 @@
       <c r="E6" s="20">
         <v>20979</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G6" s="22">
+        <v>20979</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>20979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10748,11 +10806,15 @@
       <c r="E7" s="20">
         <v>6596</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G7" s="22">
+        <v>6596</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>6596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10769,11 +10831,15 @@
       <c r="E8" s="20">
         <v>64</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G8" s="22">
+        <v>64</v>
+      </c>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10815,11 +10881,15 @@
       <c r="E10" s="20">
         <v>3332</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G10" s="22">
+        <v>3332</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>3332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10836,11 +10906,15 @@
       <c r="E11" s="20">
         <v>6800</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G11" s="22">
+        <v>6800</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10857,11 +10931,15 @@
       <c r="E12" s="20">
         <v>6664</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G12" s="22">
+        <v>6664</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>6664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10903,11 +10981,15 @@
       <c r="E14" s="20">
         <v>12362</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G14" s="22">
+        <v>12362</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>12362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10924,11 +11006,15 @@
       <c r="E15" s="20">
         <v>92666</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G15" s="22">
+        <v>92666</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>92666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10945,11 +11031,15 @@
       <c r="E16" s="20">
         <v>12222</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G16" s="22">
+        <v>12222</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>12222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -10966,11 +11056,15 @@
       <c r="E17" s="20">
         <v>3060</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3060</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>3060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11037,11 +11131,15 @@
       <c r="E20" s="20">
         <v>80833</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G20" s="22">
+        <v>80833</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>80833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -11058,11 +11156,15 @@
       <c r="E21" s="20">
         <v>11767</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G21" s="22">
+        <v>11767</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>11767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -11079,11 +11181,15 @@
       <c r="E22" s="20">
         <v>8120</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G22" s="22">
+        <v>8120</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>8120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11100,11 +11206,15 @@
       <c r="E23" s="20">
         <v>50260</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G23" s="22">
+        <v>50260</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>50260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -11121,11 +11231,15 @@
       <c r="E24" s="20">
         <v>84535</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G24" s="22">
+        <v>84535</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>84535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11142,11 +11256,15 @@
       <c r="E25" s="20">
         <v>77384</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G25" s="22">
+        <v>77384</v>
+      </c>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>77384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -11163,11 +11281,15 @@
       <c r="E26" s="20">
         <v>71425</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G26" s="22">
+        <v>71425</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>71425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -11184,11 +11306,15 @@
       <c r="E27" s="20">
         <v>2969</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G27" s="22">
+        <v>2969</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>2969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11205,11 +11331,15 @@
       <c r="E28" s="20">
         <v>6534</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G28" s="22">
+        <v>6534</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>6534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11226,11 +11356,15 @@
       <c r="E29" s="20">
         <v>7177</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G29" s="22">
+        <v>7177</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>7177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11268,11 +11402,15 @@
       <c r="E31" s="20">
         <v>57838</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G31" s="22">
+        <v>57838</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>57838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11309,8 +11447,12 @@
       <c r="E33" s="20">
         <v>1471</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1471</v>
+      </c>
       <c r="H33" s="18">
         <v>0</v>
       </c>
@@ -11324,12 +11466,14 @@
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E34" s="20">
-        <v>12995</v>
-      </c>
-      <c r="F34" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>38</v>
+      </c>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
         <v>0</v>
@@ -11370,11 +11514,15 @@
       <c r="E36" s="20">
         <v>85149</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G36" s="22">
+        <v>85149</v>
+      </c>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>85149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11391,11 +11539,15 @@
       <c r="E37" s="20">
         <v>78315</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G37" s="22">
+        <v>78315</v>
+      </c>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>78315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11412,11 +11564,15 @@
       <c r="E38" s="20">
         <v>60</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G38" s="22">
+        <v>60</v>
+      </c>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11433,21 +11589,31 @@
       <c r="E39" s="20">
         <v>10556</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G39" s="22">
+        <v>10556</v>
+      </c>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>10556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>44638</v>
+      </c>
       <c r="B40" s="13">
         <v>267</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
@@ -11456,108 +11622,170 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="23">
+        <v>44639</v>
+      </c>
       <c r="B41" s="13">
         <v>268</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="D41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="20">
+        <v>28052</v>
+      </c>
+      <c r="F41" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G41" s="22">
+        <v>28052</v>
+      </c>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="23">
+        <v>44639</v>
+      </c>
       <c r="B42" s="13">
         <v>269</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="20">
+        <v>7000</v>
+      </c>
+      <c r="F42" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G42" s="22">
+        <v>7000</v>
+      </c>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="23">
+        <v>44641</v>
+      </c>
       <c r="B43" s="13">
         <v>270</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="D43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="20">
+        <v>12233</v>
+      </c>
+      <c r="F43" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G43" s="22">
+        <v>12233</v>
+      </c>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="23">
+        <v>44641</v>
+      </c>
       <c r="B44" s="13">
         <v>271</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="D44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="20">
+        <v>6913</v>
+      </c>
+      <c r="F44" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G44" s="22">
+        <v>6913</v>
+      </c>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="23">
+        <v>44642</v>
+      </c>
       <c r="B45" s="13">
         <v>272</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="D45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="20">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="21">
+        <v>44643</v>
+      </c>
+      <c r="G45" s="22">
+        <v>3300</v>
+      </c>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23">
+        <v>44642</v>
+      </c>
       <c r="B46" s="13">
         <v>273</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="20">
+        <v>28638</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="23">
+        <v>44642</v>
+      </c>
       <c r="B47" s="13">
         <v>274</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="20">
+        <v>6588</v>
+      </c>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11809,16 +12037,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="39">
         <f>SUM(E4:E63)</f>
-        <v>920874</v>
+        <v>1000603</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39">
         <f>SUM(G4:G63)</f>
-        <v>58299</v>
+        <v>929952</v>
       </c>
       <c r="H64" s="40">
         <f>SUM(H4:H63)</f>
-        <v>848109</v>
+        <v>70651</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -11860,12 +12088,12 @@
       <c r="B68" s="37"/>
       <c r="C68" s="38"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="110">
+      <c r="E68" s="112">
         <f>E64-G64</f>
-        <v>862575</v>
-      </c>
-      <c r="F68" s="111"/>
-      <c r="G68" s="112"/>
+        <v>70651</v>
+      </c>
+      <c r="F68" s="113"/>
+      <c r="G68" s="114"/>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -11881,11 +12109,11 @@
       <c r="B70" s="37"/>
       <c r="C70" s="38"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="113" t="s">
+      <c r="E70" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="115"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -12002,12 +12230,419 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D3:D82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="54">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="54">
+        <v>10120</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="54">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="54">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="54">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="54">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="54">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="54">
+        <v>214.37</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="54">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="54">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="54">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="54">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="54">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="54">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="54">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="54">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="54">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="54">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="54">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="54">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="54">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="54">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="54">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="54">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="54">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="54">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="54">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="54">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="54">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="54">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="54">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="54">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="54">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="54">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="54">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="54">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="54">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="54">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="54">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="54">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="54">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="54">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="54">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="54">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="54">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="54">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="54">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="54">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="54">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="54">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="54">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="54">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="54">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="54">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="54">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="54">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="54">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="54">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="54">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="54">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="54">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="54">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="54">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="54">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="54">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="54">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="54">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="54">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="54">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="54">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="54">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="54">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="54">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="54">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="54">
+        <v>28.63</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="54">
+        <f>SUM(D3:D80)</f>
+        <v>54891</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12031,26 +12666,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -12960,27 +13595,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -13175,11 +13810,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="123">
+      <c r="G11" s="125">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="124"/>
+      <c r="H11" s="126"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -14554,11 +15189,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="125">
+      <c r="G81" s="127">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="126"/>
+      <c r="H81" s="128"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -14646,12 +15281,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="110">
+      <c r="E88" s="112">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="111"/>
-      <c r="G88" s="112"/>
+      <c r="F88" s="113"/>
+      <c r="G88" s="114"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -14668,11 +15303,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="113" t="s">
+      <c r="E90" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="113"/>
-      <c r="G90" s="113"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="115"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="41">
   <si>
     <t>REMISION</t>
   </si>
@@ -261,6 +261,9 @@
       </rPr>
       <t>CANCELADA</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS  11 SUR </t>
   </si>
 </sst>
 </file>
@@ -9069,7 +9072,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -10654,8 +10657,8 @@
   </sheetPr>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11381,11 +11384,15 @@
       <c r="E30" s="20">
         <v>32815</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="21">
+        <v>44644</v>
+      </c>
+      <c r="G30" s="22">
+        <v>32815</v>
+      </c>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>32815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11789,74 +11796,106 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="23">
+        <v>44643</v>
+      </c>
       <c r="B48" s="13">
         <v>275</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="20">
+        <v>1055</v>
+      </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="23">
+        <v>44643</v>
+      </c>
       <c r="B49" s="13">
         <v>276</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="20">
+        <v>35466</v>
+      </c>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35466</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="23">
+        <v>44643</v>
+      </c>
       <c r="B50" s="13">
         <v>277</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="20">
+        <v>226</v>
+      </c>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="23">
+        <v>44644</v>
+      </c>
       <c r="B51" s="13">
         <v>278</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
+      <c r="D51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="20">
+        <v>12107</v>
+      </c>
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="23">
+        <v>44644</v>
+      </c>
       <c r="B52" s="13">
         <v>279</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
+      <c r="D52" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G52" s="22"/>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
@@ -11864,78 +11903,108 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="23">
+        <v>44644</v>
+      </c>
       <c r="B53" s="13">
         <v>280</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="20">
+        <v>2150</v>
+      </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="23">
+        <v>44644</v>
+      </c>
       <c r="B54" s="13">
         <v>281</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="D54" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="20">
+        <v>5334</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="23">
+        <v>44645</v>
+      </c>
       <c r="B55" s="13">
         <v>282</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
+      <c r="D55" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="20">
+        <v>9690</v>
+      </c>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="23">
+        <v>44646</v>
+      </c>
       <c r="B56" s="13">
         <v>283</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
+      <c r="D56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="20">
+        <v>10701</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
       <c r="H56" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="23">
+        <v>44646</v>
+      </c>
       <c r="B57" s="13">
         <v>284</v>
       </c>
       <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="D57" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="20">
+        <v>3210</v>
+      </c>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
       <c r="H57" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12037,16 +12106,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="39">
         <f>SUM(E4:E63)</f>
-        <v>1000603</v>
+        <v>1080542</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39">
         <f>SUM(G4:G63)</f>
-        <v>929952</v>
+        <v>962767</v>
       </c>
       <c r="H64" s="40">
         <f>SUM(H4:H63)</f>
-        <v>70651</v>
+        <v>117775</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -12090,7 +12159,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="112">
         <f>E64-G64</f>
-        <v>70651</v>
+        <v>117775</v>
       </c>
       <c r="F68" s="113"/>
       <c r="G68" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/CREDITOS  4 CARNES   ZAVALETA   MaRzO   2022.xlsx
@@ -517,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -722,12 +722,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,6 +1015,9 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1596,13 +1610,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1649,13 +1663,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10655,10 +10669,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10744,7 +10758,7 @@
         <v>15017</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H63" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H59" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -12009,9 +12023,7 @@
     </row>
     <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
-      <c r="B58" s="13">
-        <v>285</v>
-      </c>
+      <c r="B58" s="13"/>
       <c r="C58" s="24"/>
       <c r="D58" s="19"/>
       <c r="E58" s="20"/>
@@ -12022,101 +12034,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="13">
-        <v>286</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="13">
-        <v>287</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="13">
-        <v>288</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="13">
-        <v>289</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34">
+        <v>0</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="39">
+        <f>SUM(E4:E59)</f>
+        <v>1080542</v>
+      </c>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39">
+        <f>SUM(G4:G59)</f>
+        <v>962767</v>
+      </c>
+      <c r="H60" s="40">
+        <f>SUM(H4:H59)</f>
+        <v>117775</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="42"/>
+      <c r="G62" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="44"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
-      <c r="B63" s="13">
-        <v>290</v>
-      </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="34">
-        <v>0</v>
-      </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="44"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="39">
-        <f>SUM(E4:E63)</f>
-        <v>1080542</v>
-      </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39">
-        <f>SUM(G4:G63)</f>
-        <v>962767</v>
-      </c>
-      <c r="H64" s="40">
-        <f>SUM(H4:H63)</f>
+      <c r="E64" s="112">
+        <f>E60-G60</f>
         <v>117775</v>
       </c>
+      <c r="F64" s="113"/>
+      <c r="G64" s="114"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -12126,43 +12122,36 @@
       <c r="E65" s="41"/>
       <c r="F65" s="42"/>
       <c r="G65" s="43"/>
-      <c r="H65" s="44"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="44"/>
+      <c r="E66" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="45"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="42"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="44"/>
+      <c r="G67" s="43"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="37"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="112">
-        <f>E64-G64</f>
-        <v>117775</v>
-      </c>
-      <c r="F68" s="113"/>
-      <c r="G68" s="114"/>
+    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="30"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="50"/>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -12174,15 +12163,13 @@
       <c r="G69" s="43"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="37"/>
       <c r="C70" s="38"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -12194,14 +12181,13 @@
       <c r="G71" s="43"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="30"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="50"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="43"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -12249,48 +12235,12 @@
       <c r="G77" s="43"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="37"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="37"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="37"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="43"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-      <c r="I81" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E66:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
